--- a/data/outputs/elasticity_scenarios_gender.xlsx
+++ b/data/outputs/elasticity_scenarios_gender.xlsx
@@ -525,22 +525,22 @@
         <v>7258700.21</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2073590783736157</v>
+        <v>0.2074145712443585</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7575193867272579</v>
+        <v>0.7575276563530245</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2424806132727421</v>
+        <v>0.2424723436469755</v>
       </c>
       <c r="J2" t="n">
-        <v>1140185.899770715</v>
+        <v>1140503.483629393</v>
       </c>
       <c r="K2" t="n">
-        <v>0.32455</v>
+        <v>0.32463</v>
       </c>
       <c r="L2" t="n">
-        <v>370047.3337705856</v>
+        <v>370241.6458906097</v>
       </c>
     </row>
     <row r="3">
@@ -573,22 +573,22 @@
         <v>4808331.6</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2439660900098947</v>
+        <v>0.2439214811510149</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6609278171721149</v>
+        <v>0.661063186610632</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3390721828278853</v>
+        <v>0.3389368133893682</v>
       </c>
       <c r="J3" t="n">
-        <v>775314.5019093208</v>
+        <v>775331.5055076311</v>
       </c>
       <c r="K3" t="n">
-        <v>0.20601</v>
+        <v>0.20594</v>
       </c>
       <c r="L3" t="n">
-        <v>159722.5405383392</v>
+        <v>159671.7702442415</v>
       </c>
     </row>
     <row r="4">
@@ -621,22 +621,22 @@
         <v>10075194.08</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2497751883420249</v>
+        <v>0.2497096014071886</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6583957000940481</v>
+        <v>0.6583564577097035</v>
       </c>
       <c r="I4" t="n">
-        <v>0.341604299905952</v>
+        <v>0.3416435422902965</v>
       </c>
       <c r="J4" t="n">
-        <v>1656874.834827906</v>
+        <v>1656341.037383267</v>
       </c>
       <c r="K4" t="n">
-        <v>0.28728</v>
+        <v>0.28719</v>
       </c>
       <c r="L4" t="n">
-        <v>475987.0025493609</v>
+        <v>475684.5825261005</v>
       </c>
     </row>
     <row r="5">
@@ -669,22 +669,22 @@
         <v>7149460.78</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2026718937682019</v>
+        <v>0.2027528949093293</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5642811458047499</v>
+        <v>0.5639998767752071</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4357188541952499</v>
+        <v>0.4360001232247929</v>
       </c>
       <c r="J5" t="n">
-        <v>817640.421013775</v>
+        <v>817559.4841613013</v>
       </c>
       <c r="K5" t="n">
-        <v>0.28238</v>
+        <v>0.28277</v>
       </c>
       <c r="L5" t="n">
-        <v>230885.3020858698</v>
+        <v>231181.2953362912</v>
       </c>
     </row>
     <row r="6">
@@ -717,22 +717,22 @@
         <v>19861414.81</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2397705611352465</v>
+        <v>0.2397829701583968</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5015754839710033</v>
+        <v>0.5015141540487162</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4984245160289967</v>
+        <v>0.4984858459512838</v>
       </c>
       <c r="J6" t="n">
-        <v>2388594.029279021</v>
+        <v>2388425.568549484</v>
       </c>
       <c r="K6" t="n">
-        <v>0.17972</v>
+        <v>0.17964</v>
       </c>
       <c r="L6" t="n">
-        <v>429278.1189420256</v>
+        <v>429056.7691342293</v>
       </c>
     </row>
     <row r="7">
@@ -765,22 +765,22 @@
         <v>21717536.49</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2354136350616217</v>
+        <v>0.2352878045290309</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5608051489970149</v>
+        <v>0.56074222668004</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4391948510029851</v>
+        <v>0.4392577733199599</v>
       </c>
       <c r="J7" t="n">
-        <v>2867174.765580385</v>
+        <v>2865320.712030692</v>
       </c>
       <c r="K7" t="n">
-        <v>0.17252</v>
+        <v>0.17271</v>
       </c>
       <c r="L7" t="n">
-        <v>494644.990557928</v>
+        <v>494869.5401748208</v>
       </c>
     </row>
     <row r="8">
@@ -813,22 +813,22 @@
         <v>887903.38</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1872257924714596</v>
+        <v>0.1872691105427678</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7064029293738695</v>
+        <v>0.7063900970224155</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2935970706261304</v>
+        <v>0.2936099029775845</v>
       </c>
       <c r="J8" t="n">
-        <v>117431.3025948122</v>
+        <v>117456.3387259953</v>
       </c>
       <c r="K8" t="n">
-        <v>0.23325</v>
+        <v>0.2333</v>
       </c>
       <c r="L8" t="n">
-        <v>27390.85133023995</v>
+        <v>27402.56382477471</v>
       </c>
     </row>
     <row r="9">
@@ -861,22 +861,22 @@
         <v>870142</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2941750398538997</v>
+        <v>0.2941909889487107</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6024058337215615</v>
+        <v>0.602526890899778</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3975941662784386</v>
+        <v>0.397473109100222</v>
       </c>
       <c r="J9" t="n">
-        <v>154200.2655365783</v>
+        <v>154239.614888168</v>
       </c>
       <c r="K9" t="n">
-        <v>0.15043</v>
+        <v>0.15031</v>
       </c>
       <c r="L9" t="n">
-        <v>23196.34594466748</v>
+        <v>23183.75651384053</v>
       </c>
     </row>
     <row r="10">
@@ -909,22 +909,22 @@
         <v>26476403.67</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02703787843058348</v>
+        <v>0.0581389848147973</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5860027608069135</v>
+        <v>0.6110243958839172</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4139972391930867</v>
+        <v>0.3889756041160828</v>
       </c>
       <c r="J10" t="n">
-        <v>419499.3256203943</v>
+        <v>940556.7149505726</v>
       </c>
       <c r="K10" t="n">
-        <v>0.36067</v>
+        <v>0.37168</v>
       </c>
       <c r="L10" t="n">
-        <v>151300.8217715076</v>
+        <v>349586.1198128288</v>
       </c>
     </row>
     <row r="11">
@@ -957,22 +957,22 @@
         <v>30782242.97</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02188047775192163</v>
+        <v>0.04824256469679413</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6232669785214192</v>
+        <v>0.6434376320302209</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3767330214785808</v>
+        <v>0.356562367969779</v>
       </c>
       <c r="J11" t="n">
-        <v>419789.1217644074</v>
+        <v>955514.1156033003</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3893</v>
+        <v>0.31593</v>
       </c>
       <c r="L11" t="n">
-        <v>163423.9051028838</v>
+        <v>301875.5745425507</v>
       </c>
     </row>
     <row r="12">
@@ -1005,22 +1005,22 @@
         <v>9243321.390000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6170547122849235</v>
+        <v>0.5885607209779602</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5509076638041798</v>
+        <v>0.5115949968045284</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4490923361958202</v>
+        <v>0.4884050031954715</v>
       </c>
       <c r="J12" t="n">
-        <v>3142176.244535631</v>
+        <v>2783207.700558751</v>
       </c>
       <c r="K12" t="n">
-        <v>0.34306</v>
+        <v>0.33149</v>
       </c>
       <c r="L12" t="n">
-        <v>1077954.982450393</v>
+        <v>922605.5206582204</v>
       </c>
     </row>
     <row r="13">
@@ -1053,22 +1053,22 @@
         <v>11416073.02</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5540076993948884</v>
+        <v>0.4816339455351487</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4602182792989054</v>
+        <v>0.4829894980117595</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5397817207010945</v>
+        <v>0.5170105019882405</v>
       </c>
       <c r="J13" t="n">
-        <v>2910693.008553763</v>
+        <v>2655654.140821465</v>
       </c>
       <c r="K13" t="n">
-        <v>0.29085</v>
+        <v>0.3039</v>
       </c>
       <c r="L13" t="n">
-        <v>846575.0615378621</v>
+        <v>807053.2933956434</v>
       </c>
     </row>
     <row r="14">
@@ -1101,22 +1101,22 @@
         <v>1119406.88</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2102635608788289</v>
+        <v>0.2103680209985235</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6977407940376803</v>
+        <v>0.6976575614222493</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3022592059623197</v>
+        <v>0.3023424385777506</v>
       </c>
       <c r="J14" t="n">
-        <v>164227.5832785153</v>
+        <v>164289.5722325652</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3036</v>
+        <v>0.30376</v>
       </c>
       <c r="L14" t="n">
-        <v>49859.49428335723</v>
+        <v>49904.600461364</v>
       </c>
     </row>
     <row r="15">
@@ -1149,22 +1149,22 @@
         <v>1264126.8</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1719295979590839</v>
+        <v>0.1720225872689938</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6578907354104708</v>
+        <v>0.6578192010265762</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3421092645895294</v>
+        <v>0.3421807989734239</v>
       </c>
       <c r="J15" t="n">
-        <v>142986.5069659286</v>
+        <v>143048.286455273</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2612</v>
+        <v>0.26107</v>
       </c>
       <c r="L15" t="n">
-        <v>37348.07561950054</v>
+        <v>37345.61614487813</v>
       </c>
     </row>
     <row r="16">
@@ -1293,22 +1293,22 @@
         <v>10712630.09</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3232330452363345</v>
+        <v>0.3232591085764103</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4754089295099047</v>
+        <v>0.4753345420012087</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5245910704900952</v>
+        <v>0.5246654579987914</v>
       </c>
       <c r="J18" t="n">
-        <v>1646187.112497163</v>
+        <v>1646062.249346629</v>
       </c>
       <c r="K18" t="n">
-        <v>0.26225</v>
+        <v>0.26228</v>
       </c>
       <c r="L18" t="n">
-        <v>431712.570252381</v>
+        <v>431729.2067586338</v>
       </c>
     </row>
     <row r="19">
@@ -1341,22 +1341,22 @@
         <v>9757000.390000001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.289091594234505</v>
+        <v>0.2891776831727538</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4229442684813988</v>
+        <v>0.4230732770878756</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5770557315186012</v>
+        <v>0.5769267229121243</v>
       </c>
       <c r="J19" t="n">
-        <v>1192984.855379523</v>
+        <v>1193704.11445009</v>
       </c>
       <c r="K19" t="n">
-        <v>0.23201</v>
+        <v>0.23185</v>
       </c>
       <c r="L19" t="n">
-        <v>276784.416296603</v>
+        <v>276760.2989352534</v>
       </c>
     </row>
     <row r="20">
@@ -1389,22 +1389,22 @@
         <v>77081657.48</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2097889128573836</v>
+        <v>0.209808833818584</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5864535752755343</v>
+        <v>0.5863816834303864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4135464247244656</v>
+        <v>0.4136183165696135</v>
       </c>
       <c r="J20" t="n">
-        <v>9483468.704696141</v>
+        <v>9483206.563447326</v>
       </c>
       <c r="K20" t="n">
-        <v>0.31498</v>
+        <v>0.31486</v>
       </c>
       <c r="L20" t="n">
-        <v>2987102.97260519</v>
+        <v>2985882.418567025</v>
       </c>
     </row>
     <row r="21">
@@ -1437,22 +1437,22 @@
         <v>53580151.19</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2933856419682123</v>
+        <v>0.2932773678153138</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5625676758002246</v>
+        <v>0.5625333231776982</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4374323241997755</v>
+        <v>0.4374666768223017</v>
       </c>
       <c r="J21" t="n">
-        <v>8843365.307361616</v>
+        <v>8839561.846107092</v>
       </c>
       <c r="K21" t="n">
-        <v>0.23764</v>
+        <v>0.2375</v>
       </c>
       <c r="L21" t="n">
-        <v>2101537.331641414</v>
+        <v>2099395.938450434</v>
       </c>
     </row>
     <row r="22">
@@ -1485,22 +1485,22 @@
         <v>7258700.21</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2720861816081305</v>
+        <v>0.272147001934236</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7575193867272579</v>
+        <v>0.7575276563530245</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2424806132727421</v>
+        <v>0.2424723436469755</v>
       </c>
       <c r="J22" t="n">
-        <v>1496094.746491302</v>
+        <v>1496445.509605119</v>
       </c>
       <c r="K22" t="n">
-        <v>0.32455</v>
+        <v>0.32463</v>
       </c>
       <c r="L22" t="n">
-        <v>485557.5499737519</v>
+        <v>485791.1057831096</v>
       </c>
     </row>
     <row r="23">
@@ -1533,22 +1533,22 @@
         <v>4808331.6</v>
       </c>
       <c r="G23" t="n">
-        <v>0.291972604412621</v>
+        <v>0.2919362034351996</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6609278171721149</v>
+        <v>0.661063186610632</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3390721828278853</v>
+        <v>0.3389368133893682</v>
       </c>
       <c r="J23" t="n">
-        <v>927877.2896354462</v>
+        <v>927951.6303915064</v>
       </c>
       <c r="K23" t="n">
-        <v>0.20601</v>
+        <v>0.20594</v>
       </c>
       <c r="L23" t="n">
-        <v>191152.0004377983</v>
+        <v>191102.3587628268</v>
       </c>
     </row>
     <row r="24">
@@ -1581,22 +1581,22 @@
         <v>10075194.08</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3039462193488188</v>
+        <v>0.3038067106966247</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6583957000940481</v>
+        <v>0.6583564577097035</v>
       </c>
       <c r="I24" t="n">
-        <v>0.341604299905952</v>
+        <v>0.3416435422902965</v>
       </c>
       <c r="J24" t="n">
-        <v>2016216.443766803</v>
+        <v>2015170.900612232</v>
       </c>
       <c r="K24" t="n">
-        <v>0.28728</v>
+        <v>0.28719</v>
       </c>
       <c r="L24" t="n">
-        <v>579218.6599653271</v>
+        <v>578736.9309468268</v>
       </c>
     </row>
     <row r="25">
@@ -1629,22 +1629,22 @@
         <v>7149460.78</v>
       </c>
       <c r="G25" t="n">
-        <v>0.253644263628524</v>
+        <v>0.2536596023596242</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5642811458047499</v>
+        <v>0.5639998767752071</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4357188541952499</v>
+        <v>0.4360001232247929</v>
       </c>
       <c r="J25" t="n">
-        <v>1023278.55453973</v>
+        <v>1022830.346025076</v>
       </c>
       <c r="K25" t="n">
-        <v>0.28238</v>
+        <v>0.28277</v>
       </c>
       <c r="L25" t="n">
-        <v>288953.398230929</v>
+        <v>289225.7369455108</v>
       </c>
     </row>
     <row r="26">
@@ -1677,22 +1677,22 @@
         <v>19861414.81</v>
       </c>
       <c r="G26" t="n">
-        <v>0.288161927095796</v>
+        <v>0.2881771243545987</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5015754839710033</v>
+        <v>0.5015141540487162</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4984245160289967</v>
+        <v>0.4984858459512838</v>
       </c>
       <c r="J26" t="n">
-        <v>2870668.756279496</v>
+        <v>2870469.123077902</v>
       </c>
       <c r="K26" t="n">
-        <v>0.17972</v>
+        <v>0.17964</v>
       </c>
       <c r="L26" t="n">
-        <v>515916.588878551</v>
+        <v>515651.0732697142</v>
       </c>
     </row>
     <row r="27">
@@ -1725,22 +1725,22 @@
         <v>21717536.49</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3388277420174046</v>
+        <v>0.3387114084355884</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5608051489970149</v>
+        <v>0.56074222668004</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4391948510029851</v>
+        <v>0.4392577733199599</v>
       </c>
       <c r="J27" t="n">
-        <v>4126686.848604117</v>
+        <v>4124807.13113982</v>
       </c>
       <c r="K27" t="n">
-        <v>0.17252</v>
+        <v>0.17271</v>
       </c>
       <c r="L27" t="n">
-        <v>711936.0151211822</v>
+        <v>712395.4396191583</v>
       </c>
     </row>
     <row r="28">
@@ -1773,22 +1773,22 @@
         <v>887903.38</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2679068421841682</v>
+        <v>0.2679264942692053</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7064029293738695</v>
+        <v>0.7063900970224155</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2935970706261304</v>
+        <v>0.2936099029775845</v>
       </c>
       <c r="J28" t="n">
-        <v>168035.8728167512</v>
+        <v>168045.1462248244</v>
       </c>
       <c r="K28" t="n">
-        <v>0.23325</v>
+        <v>0.2333</v>
       </c>
       <c r="L28" t="n">
-        <v>39194.36733450723</v>
+        <v>39204.93261425153</v>
       </c>
     </row>
     <row r="29">
@@ -1821,22 +1821,22 @@
         <v>870142</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4185602133402874</v>
+        <v>0.4185888353641258</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6024058337215615</v>
+        <v>0.602526890899778</v>
       </c>
       <c r="I29" t="n">
-        <v>0.3975941662784386</v>
+        <v>0.397473109100222</v>
       </c>
       <c r="J29" t="n">
-        <v>219400.3137457673</v>
+        <v>219459.4096636503</v>
       </c>
       <c r="K29" t="n">
-        <v>0.15043</v>
+        <v>0.15031</v>
       </c>
       <c r="L29" t="n">
-        <v>33004.38919677577</v>
+        <v>32986.94386654328</v>
       </c>
     </row>
     <row r="30">
@@ -1869,22 +1869,22 @@
         <v>26476403.67</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04499756976526387</v>
+        <v>0.09877477647949288</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5860027608069135</v>
+        <v>0.6110243958839172</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4139972391930867</v>
+        <v>0.3889756041160828</v>
       </c>
       <c r="J30" t="n">
-        <v>698148.3484197127</v>
+        <v>1597951.522226847</v>
       </c>
       <c r="K30" t="n">
-        <v>0.36067</v>
+        <v>0.37168</v>
       </c>
       <c r="L30" t="n">
-        <v>251801.1648245378</v>
+        <v>593926.6217812746</v>
       </c>
     </row>
     <row r="31">
@@ -1917,22 +1917,22 @@
         <v>30782242.97</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04054450405736077</v>
+        <v>0.059675550405562</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6232669785214192</v>
+        <v>0.6434376320302209</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3767330214785808</v>
+        <v>0.356562367969779</v>
       </c>
       <c r="J31" t="n">
-        <v>777868.8355704736</v>
+        <v>1181961.015698238</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3893</v>
+        <v>0.31593</v>
       </c>
       <c r="L31" t="n">
-        <v>302824.3376875853</v>
+        <v>373416.9436895443</v>
       </c>
     </row>
     <row r="32">
@@ -1965,22 +1965,22 @@
         <v>9243321.390000001</v>
       </c>
       <c r="G32" t="n">
-        <v>0.705561546213598</v>
+        <v>0.6583385384134917</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5509076638041798</v>
+        <v>0.5115949968045284</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4490923361958202</v>
+        <v>0.4884050031954715</v>
       </c>
       <c r="J32" t="n">
-        <v>3592872.212839536</v>
+        <v>3113175.623820871</v>
       </c>
       <c r="K32" t="n">
-        <v>0.34306</v>
+        <v>0.33149</v>
       </c>
       <c r="L32" t="n">
-        <v>1232570.741336731</v>
+        <v>1031986.587540381</v>
       </c>
     </row>
     <row r="33">
@@ -2013,22 +2013,22 @@
         <v>11416073.02</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6171925503144503</v>
+        <v>0.565512631060446</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4602182792989054</v>
+        <v>0.4829894980117595</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5397817207010945</v>
+        <v>0.5170105019882405</v>
       </c>
       <c r="J33" t="n">
-        <v>3242658.979458062</v>
+        <v>3118148.075492981</v>
       </c>
       <c r="K33" t="n">
-        <v>0.29085</v>
+        <v>0.3039</v>
       </c>
       <c r="L33" t="n">
-        <v>943127.3641753773</v>
+        <v>947605.2001423169</v>
       </c>
     </row>
     <row r="34">
@@ -2061,22 +2061,22 @@
         <v>1119406.88</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2719514904888303</v>
+        <v>0.2721058675561874</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6977407940376803</v>
+        <v>0.6976575614222493</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3022592059623197</v>
+        <v>0.3023424385777506</v>
       </c>
       <c r="J34" t="n">
-        <v>212409.3012850125</v>
+        <v>212504.5259758889</v>
       </c>
       <c r="K34" t="n">
-        <v>0.3036</v>
+        <v>0.30376</v>
       </c>
       <c r="L34" t="n">
-        <v>64487.46387012977</v>
+        <v>64550.37481043599</v>
       </c>
     </row>
     <row r="35">
@@ -2109,22 +2109,22 @@
         <v>1264126.8</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2515780352769698</v>
+        <v>0.251694045174538</v>
       </c>
       <c r="H35" t="n">
-        <v>0.6578907354104708</v>
+        <v>0.6578192010265762</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3421092645895294</v>
+        <v>0.3421807989734239</v>
       </c>
       <c r="J35" t="n">
-        <v>209226.7120997154</v>
+        <v>209300.4322561037</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2612</v>
+        <v>0.26107</v>
       </c>
       <c r="L35" t="n">
-        <v>54650.01720044565</v>
+        <v>54642.063849101</v>
       </c>
     </row>
     <row r="36">
@@ -2253,22 +2253,22 @@
         <v>10712630.09</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4181167986529332</v>
+        <v>0.4181771949580442</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4754089295099047</v>
+        <v>0.4753345420012087</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5245910704900952</v>
+        <v>0.5246654579987914</v>
       </c>
       <c r="J38" t="n">
-        <v>2129418.682912741</v>
+        <v>2129393.034552016</v>
       </c>
       <c r="K38" t="n">
-        <v>0.26225</v>
+        <v>0.26228</v>
       </c>
       <c r="L38" t="n">
-        <v>558440.0495938663</v>
+        <v>558497.2051023027</v>
       </c>
     </row>
     <row r="39">
@@ -2301,22 +2301,22 @@
         <v>9757000.390000001</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3485197820167681</v>
+        <v>0.348599596683845</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4229442684813988</v>
+        <v>0.4230732770878756</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5770557315186012</v>
+        <v>0.5769267229121243</v>
       </c>
       <c r="J39" t="n">
-        <v>1438225.220097219</v>
+        <v>1438993.383900085</v>
       </c>
       <c r="K39" t="n">
-        <v>0.23201</v>
+        <v>0.23185</v>
       </c>
       <c r="L39" t="n">
-        <v>333682.6333147557</v>
+        <v>333630.6160572348</v>
       </c>
     </row>
     <row r="40">
@@ -2349,22 +2349,22 @@
         <v>77081657.48</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2689189673269873</v>
+        <v>0.2689191324169996</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5864535752755343</v>
+        <v>0.5863816834303864</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4135464247244656</v>
+        <v>0.4136183165696135</v>
       </c>
       <c r="J40" t="n">
-        <v>12156431.79617597</v>
+        <v>12154949.03221546</v>
       </c>
       <c r="K40" t="n">
-        <v>0.31498</v>
+        <v>0.31486</v>
       </c>
       <c r="L40" t="n">
-        <v>3829032.887159508</v>
+        <v>3827107.252283358</v>
       </c>
     </row>
     <row r="41">
@@ -2397,22 +2397,22 @@
         <v>53580151.19</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3749096674607176</v>
+        <v>0.3747545866901361</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5625676758002246</v>
+        <v>0.5625333231776982</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4374323241997755</v>
+        <v>0.4374666768223017</v>
       </c>
       <c r="J41" t="n">
-        <v>11300700.07644005</v>
+        <v>11295335.78003827</v>
       </c>
       <c r="K41" t="n">
-        <v>0.23764</v>
+        <v>0.2375</v>
       </c>
       <c r="L41" t="n">
-        <v>2685498.366165214</v>
+        <v>2682642.24775909</v>
       </c>
     </row>
     <row r="42">
@@ -2445,22 +2445,22 @@
         <v>7258700.21</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4142841324360892</v>
+        <v>0.4143778207607994</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7575193867272579</v>
+        <v>0.7575276563530245</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2424806132727421</v>
+        <v>0.2424723436469755</v>
       </c>
       <c r="J42" t="n">
-        <v>2277985.270802957</v>
+        <v>2278525.299747002</v>
       </c>
       <c r="K42" t="n">
-        <v>0.32455</v>
+        <v>0.32463</v>
       </c>
       <c r="L42" t="n">
-        <v>739320.1196390998</v>
+        <v>739677.6680568692</v>
       </c>
     </row>
     <row r="43">
@@ -2493,22 +2493,22 @@
         <v>4808331.6</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4523201378296605</v>
+        <v>0.4522641088556769</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6609278171721149</v>
+        <v>0.661063186610632</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3390721828278853</v>
+        <v>0.3389368133893682</v>
       </c>
       <c r="J43" t="n">
-        <v>1437455.354351646</v>
+        <v>1437571.675735457</v>
       </c>
       <c r="K43" t="n">
-        <v>0.20601</v>
+        <v>0.20594</v>
       </c>
       <c r="L43" t="n">
-        <v>296130.1775499825</v>
+        <v>296053.51090096</v>
       </c>
     </row>
     <row r="44">
@@ -2541,22 +2541,22 @@
         <v>10075194.08</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4109459990584141</v>
+        <v>0.4108061464936444</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6583957000940481</v>
+        <v>0.6583564577097035</v>
       </c>
       <c r="I44" t="n">
-        <v>0.341604299905952</v>
+        <v>0.3416435422902965</v>
       </c>
       <c r="J44" t="n">
-        <v>2725995.679685928</v>
+        <v>2724905.550336269</v>
       </c>
       <c r="K44" t="n">
-        <v>0.28728</v>
+        <v>0.28719</v>
       </c>
       <c r="L44" t="n">
-        <v>783124.0388601734</v>
+        <v>782565.625001073</v>
       </c>
     </row>
     <row r="45">
@@ -2589,22 +2589,22 @@
         <v>7149460.78</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4063139995586258</v>
+        <v>0.4063797247105091</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5642811458047499</v>
+        <v>0.5639998767752071</v>
       </c>
       <c r="I45" t="n">
-        <v>0.4357188541952499</v>
+        <v>0.4360001232247929</v>
       </c>
       <c r="J45" t="n">
-        <v>1639194.974133256</v>
+        <v>1638642.931616401</v>
       </c>
       <c r="K45" t="n">
-        <v>0.28238</v>
+        <v>0.28277</v>
       </c>
       <c r="L45" t="n">
-        <v>462875.8767957489</v>
+        <v>463359.0617731698</v>
       </c>
     </row>
     <row r="46">
@@ -2637,22 +2637,22 @@
         <v>19861414.81</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5123303146748226</v>
+        <v>0.5124267086724424</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5015754839710033</v>
+        <v>0.5015141540487162</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4984245160289967</v>
+        <v>0.4984858459512838</v>
       </c>
       <c r="J46" t="n">
-        <v>5103833.952161656</v>
+        <v>5104170.042569892</v>
       </c>
       <c r="K46" t="n">
-        <v>0.17972</v>
+        <v>0.17964</v>
       </c>
       <c r="L46" t="n">
-        <v>917261.0378824928</v>
+        <v>916913.1064472552</v>
       </c>
     </row>
     <row r="47">
@@ -2685,22 +2685,22 @@
         <v>21717536.49</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5824533897941933</v>
+        <v>0.5824777304761565</v>
       </c>
       <c r="H47" t="n">
-        <v>0.5608051489970149</v>
+        <v>0.56074222668004</v>
       </c>
       <c r="I47" t="n">
-        <v>0.4391948510029851</v>
+        <v>0.4392577733199599</v>
       </c>
       <c r="J47" t="n">
-        <v>7093878.232276264</v>
+        <v>7093378.718759879</v>
       </c>
       <c r="K47" t="n">
-        <v>0.17252</v>
+        <v>0.17271</v>
       </c>
       <c r="L47" t="n">
-        <v>1223835.872632301</v>
+        <v>1225097.438517019</v>
       </c>
     </row>
     <row r="48">
@@ -2733,22 +2733,22 @@
         <v>887903.38</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5010512145721423</v>
+        <v>0.5010419626787913</v>
       </c>
       <c r="H48" t="n">
-        <v>0.7064029293738695</v>
+        <v>0.7063900970224155</v>
       </c>
       <c r="I48" t="n">
-        <v>0.2935970706261304</v>
+        <v>0.2936099029775845</v>
       </c>
       <c r="J48" t="n">
-        <v>314268.1145435064</v>
+        <v>314256.6027775176</v>
       </c>
       <c r="K48" t="n">
-        <v>0.23325</v>
+        <v>0.2333</v>
       </c>
       <c r="L48" t="n">
-        <v>73303.03771727286</v>
+        <v>73316.06542799485</v>
       </c>
     </row>
     <row r="49">
@@ -2781,22 +2781,22 @@
         <v>870142</v>
       </c>
       <c r="G49" t="n">
-        <v>0.6423255526454383</v>
+        <v>0.6423916123547747</v>
       </c>
       <c r="H49" t="n">
-        <v>0.6024058337215615</v>
+        <v>0.602526890899778</v>
       </c>
       <c r="I49" t="n">
-        <v>0.3975941662784386</v>
+        <v>0.397473109100222</v>
       </c>
       <c r="J49" t="n">
-        <v>336693.3198277019</v>
+        <v>336795.6144784018</v>
       </c>
       <c r="K49" t="n">
-        <v>0.15043</v>
+        <v>0.15031</v>
       </c>
       <c r="L49" t="n">
-        <v>50648.7761016812</v>
+        <v>50623.74881224858</v>
       </c>
     </row>
     <row r="50">
@@ -2829,22 +2829,22 @@
         <v>26476403.67</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1115509424903701</v>
+        <v>0.170206726902881</v>
       </c>
       <c r="H50" t="n">
-        <v>0.5860027608069135</v>
+        <v>0.6110243958839172</v>
       </c>
       <c r="I50" t="n">
-        <v>0.4139972391930867</v>
+        <v>0.3889756041160828</v>
       </c>
       <c r="J50" t="n">
-        <v>1730740.274876655</v>
+        <v>2753558.226519251</v>
       </c>
       <c r="K50" t="n">
-        <v>0.36067</v>
+        <v>0.37168</v>
       </c>
       <c r="L50" t="n">
-        <v>624226.0949397633</v>
+        <v>1023442.521632675</v>
       </c>
     </row>
     <row r="51">
@@ -2877,22 +2877,22 @@
         <v>30782242.97</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08637670360255301</v>
+        <v>0.1292004634994207</v>
       </c>
       <c r="H51" t="n">
-        <v>0.6232669785214192</v>
+        <v>0.6434376320302209</v>
       </c>
       <c r="I51" t="n">
-        <v>0.3767330214785808</v>
+        <v>0.356562367969779</v>
       </c>
       <c r="J51" t="n">
-        <v>1657185.046749528</v>
+        <v>2559002.97573502</v>
       </c>
       <c r="K51" t="n">
-        <v>0.3893</v>
+        <v>0.31593</v>
       </c>
       <c r="L51" t="n">
-        <v>645142.1386995912</v>
+        <v>808465.8101239649</v>
       </c>
     </row>
     <row r="52">
@@ -2925,22 +2925,22 @@
         <v>9243321.390000001</v>
       </c>
       <c r="G52" t="n">
-        <v>0.8361240328538102</v>
+        <v>0.7942803604889802</v>
       </c>
       <c r="H52" t="n">
-        <v>0.5509076638041798</v>
+        <v>0.5115949968045284</v>
       </c>
       <c r="I52" t="n">
-        <v>0.4490923361958202</v>
+        <v>0.4884050031954715</v>
       </c>
       <c r="J52" t="n">
-        <v>4257724.673700322</v>
+        <v>3756022.338769516</v>
       </c>
       <c r="K52" t="n">
-        <v>0.34306</v>
+        <v>0.33149</v>
       </c>
       <c r="L52" t="n">
-        <v>1460655.026559633</v>
+        <v>1245083.845078707</v>
       </c>
     </row>
     <row r="53">
@@ -2973,22 +2973,22 @@
         <v>11416073.02</v>
       </c>
       <c r="G53" t="n">
-        <v>0.7796258645029125</v>
+        <v>0.6791218070508761</v>
       </c>
       <c r="H53" t="n">
-        <v>0.4602182792989054</v>
+        <v>0.4829894980117595</v>
       </c>
       <c r="I53" t="n">
-        <v>0.5397817207010945</v>
+        <v>0.5170105019882405</v>
       </c>
       <c r="J53" t="n">
-        <v>4096065.01060344</v>
+        <v>3744571.278116439</v>
       </c>
       <c r="K53" t="n">
-        <v>0.29085</v>
+        <v>0.3039</v>
       </c>
       <c r="L53" t="n">
-        <v>1191340.508334011</v>
+        <v>1137975.211419586</v>
       </c>
     </row>
     <row r="54">
@@ -3021,22 +3021,22 @@
         <v>1119406.88</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3780123807577145</v>
+        <v>0.378082791053754</v>
       </c>
       <c r="H54" t="n">
-        <v>0.6977407940376803</v>
+        <v>0.6976575614222493</v>
       </c>
       <c r="I54" t="n">
-        <v>0.3022592059623197</v>
+        <v>0.3023424385777506</v>
       </c>
       <c r="J54" t="n">
-        <v>295248.7795875054</v>
+        <v>295268.547547688</v>
       </c>
       <c r="K54" t="n">
-        <v>0.3036</v>
+        <v>0.30376</v>
       </c>
       <c r="L54" t="n">
-        <v>89637.52948276662</v>
+        <v>89690.77400308571</v>
       </c>
     </row>
     <row r="55">
@@ -3069,22 +3069,22 @@
         <v>1264126.8</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4059922785841522</v>
+        <v>0.406006160164271</v>
       </c>
       <c r="H55" t="n">
-        <v>0.6578907354104708</v>
+        <v>0.6578192010265762</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3421092645895294</v>
+        <v>0.3421807989734239</v>
       </c>
       <c r="J55" t="n">
-        <v>337646.4463303245</v>
+        <v>337621.2765069396</v>
       </c>
       <c r="K55" t="n">
-        <v>0.2612</v>
+        <v>0.26107</v>
       </c>
       <c r="L55" t="n">
-        <v>88193.25178148075</v>
+        <v>88142.78665766671</v>
       </c>
     </row>
     <row r="56">
@@ -3213,22 +3213,22 @@
         <v>10712630.09</v>
       </c>
       <c r="G58" t="n">
-        <v>0.5664634975477437</v>
+        <v>0.5666024919176141</v>
       </c>
       <c r="H58" t="n">
-        <v>0.4754089295099047</v>
+        <v>0.4753345420012087</v>
       </c>
       <c r="I58" t="n">
-        <v>0.5245910704900952</v>
+        <v>0.5246654579987914</v>
       </c>
       <c r="J58" t="n">
-        <v>2884930.619273025</v>
+        <v>2885186.983403609</v>
       </c>
       <c r="K58" t="n">
-        <v>0.26225</v>
+        <v>0.26228</v>
       </c>
       <c r="L58" t="n">
-        <v>756573.0549043507</v>
+        <v>756726.8420070986</v>
       </c>
     </row>
     <row r="59">
@@ -3261,22 +3261,22 @@
         <v>9757000.390000001</v>
       </c>
       <c r="G59" t="n">
-        <v>0.5229743478522125</v>
+        <v>0.522966614384943</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4229442684813988</v>
+        <v>0.4230732770878756</v>
       </c>
       <c r="I59" t="n">
-        <v>0.5770557315186012</v>
+        <v>0.5769267229121243</v>
       </c>
       <c r="J59" t="n">
-        <v>2158141.188406803</v>
+        <v>2158767.55239928</v>
       </c>
       <c r="K59" t="n">
-        <v>0.23201</v>
+        <v>0.23185</v>
       </c>
       <c r="L59" t="n">
-        <v>500710.3371222624</v>
+        <v>500510.2570237731</v>
       </c>
     </row>
     <row r="60">
@@ -3309,22 +3309,22 @@
         <v>77081657.48</v>
       </c>
       <c r="G60" t="n">
-        <v>0.364398041589274</v>
+        <v>0.3643442345453314</v>
       </c>
       <c r="H60" t="n">
-        <v>0.5864535752755343</v>
+        <v>0.5863816834303864</v>
       </c>
       <c r="I60" t="n">
-        <v>0.4135464247244656</v>
+        <v>0.4136183165696135</v>
       </c>
       <c r="J60" t="n">
-        <v>16472545.55255596</v>
+        <v>16468094.18607252</v>
       </c>
       <c r="K60" t="n">
-        <v>0.31498</v>
+        <v>0.31486</v>
       </c>
       <c r="L60" t="n">
-        <v>5188522.398144076</v>
+        <v>5185144.135426795</v>
       </c>
     </row>
     <row r="61">
@@ -3357,22 +3357,22 @@
         <v>53580151.19</v>
       </c>
       <c r="G61" t="n">
-        <v>0.492984954435206</v>
+        <v>0.492925326653578</v>
       </c>
       <c r="H61" t="n">
-        <v>0.5625676758002246</v>
+        <v>0.5625333231776982</v>
       </c>
       <c r="I61" t="n">
-        <v>0.4374323241997755</v>
+        <v>0.4374666768223017</v>
       </c>
       <c r="J61" t="n">
-        <v>14859779.82377169</v>
+        <v>14857075.20810382</v>
       </c>
       <c r="K61" t="n">
-        <v>0.23764</v>
+        <v>0.2375</v>
       </c>
       <c r="L61" t="n">
-        <v>3531278.077321105</v>
+        <v>3528555.361924657</v>
       </c>
     </row>
     <row r="62">
@@ -3405,22 +3405,22 @@
         <v>7258700.21</v>
       </c>
       <c r="G62" t="n">
-        <v>0.5813687889413648</v>
+        <v>0.5814635718891037</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7575193867272579</v>
+        <v>0.7575276563530245</v>
       </c>
       <c r="I62" t="n">
-        <v>0.2424806132727421</v>
+        <v>0.2424723436469755</v>
       </c>
       <c r="J62" t="n">
-        <v>3196717.987545147</v>
+        <v>3197274.065002075</v>
       </c>
       <c r="K62" t="n">
-        <v>0.32455</v>
+        <v>0.32463</v>
       </c>
       <c r="L62" t="n">
-        <v>1037494.822857777</v>
+        <v>1037931.079721623</v>
       </c>
     </row>
     <row r="63">
@@ -3453,22 +3453,22 @@
         <v>4808331.6</v>
       </c>
       <c r="G63" t="n">
-        <v>0.6278392316224142</v>
+        <v>0.6277604282846307</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6609278171721149</v>
+        <v>0.661063186610632</v>
       </c>
       <c r="I63" t="n">
-        <v>0.3390721828278853</v>
+        <v>0.3389368133893682</v>
       </c>
       <c r="J63" t="n">
-        <v>1995248.032727501</v>
+        <v>1995406.2088476</v>
       </c>
       <c r="K63" t="n">
-        <v>0.20601</v>
+        <v>0.20594</v>
       </c>
       <c r="L63" t="n">
-        <v>411041.0472221924</v>
+        <v>410933.9546500748</v>
       </c>
     </row>
     <row r="64">
@@ -3501,22 +3501,22 @@
         <v>10075194.08</v>
       </c>
       <c r="G64" t="n">
-        <v>0.6016788969922123</v>
+        <v>0.6016063190733796</v>
       </c>
       <c r="H64" t="n">
-        <v>0.6583957000940481</v>
+        <v>0.6583564577097035</v>
       </c>
       <c r="I64" t="n">
-        <v>0.341604299905952</v>
+        <v>0.3416435422902965</v>
       </c>
       <c r="J64" t="n">
-        <v>3991215.579460654</v>
+        <v>3990496.276534622</v>
       </c>
       <c r="K64" t="n">
-        <v>0.28728</v>
+        <v>0.28719</v>
       </c>
       <c r="L64" t="n">
-        <v>1146596.411667457</v>
+        <v>1146030.625657978</v>
       </c>
     </row>
     <row r="65">
@@ -3549,22 +3549,22 @@
         <v>7149460.78</v>
       </c>
       <c r="G65" t="n">
-        <v>0.5588116575168846</v>
+        <v>0.5588813633384314</v>
       </c>
       <c r="H65" t="n">
-        <v>0.5642811458047499</v>
+        <v>0.5639998767752071</v>
       </c>
       <c r="I65" t="n">
-        <v>0.4357188541952499</v>
+        <v>0.4360001232247929</v>
       </c>
       <c r="J65" t="n">
-        <v>2254417.178546132</v>
+        <v>2253574.526384277</v>
       </c>
       <c r="K65" t="n">
-        <v>0.28238</v>
+        <v>0.28277</v>
       </c>
       <c r="L65" t="n">
-        <v>636602.3228778567</v>
+        <v>637243.268825682</v>
       </c>
     </row>
     <row r="66">
@@ -3597,22 +3597,22 @@
         <v>19861414.81</v>
       </c>
       <c r="G66" t="n">
-        <v>0.6403375635597535</v>
+        <v>0.6403693007788571</v>
       </c>
       <c r="H66" t="n">
-        <v>0.5015754839710033</v>
+        <v>0.5015141540487162</v>
       </c>
       <c r="I66" t="n">
-        <v>0.4984245160289967</v>
+        <v>0.4984858459512838</v>
       </c>
       <c r="J66" t="n">
-        <v>6379042.004990594</v>
+        <v>6378578.13790542</v>
       </c>
       <c r="K66" t="n">
-        <v>0.17972</v>
+        <v>0.17964</v>
       </c>
       <c r="L66" t="n">
-        <v>1146441.42913691</v>
+        <v>1145847.77669333</v>
       </c>
     </row>
     <row r="67">
@@ -3645,22 +3645,22 @@
         <v>21717536.49</v>
       </c>
       <c r="G67" t="n">
-        <v>0.7544373534520583</v>
+        <v>0.7544091868493543</v>
       </c>
       <c r="H67" t="n">
-        <v>0.5608051489970149</v>
+        <v>0.56074222668004</v>
       </c>
       <c r="I67" t="n">
-        <v>0.4391948510029851</v>
+        <v>0.4392577733199599</v>
       </c>
       <c r="J67" t="n">
-        <v>9188523.602138758</v>
+        <v>9187149.638939217</v>
       </c>
       <c r="K67" t="n">
-        <v>0.17252</v>
+        <v>0.17271</v>
       </c>
       <c r="L67" t="n">
-        <v>1585204.091840978</v>
+        <v>1586712.614141192</v>
       </c>
     </row>
     <row r="68">
@@ -3693,22 +3693,22 @@
         <v>887903.38</v>
       </c>
       <c r="G68" t="n">
-        <v>0.6887618565495175</v>
+        <v>0.6887846926210098</v>
       </c>
       <c r="H68" t="n">
-        <v>0.7064029293738695</v>
+        <v>0.7063900970224155</v>
       </c>
       <c r="I68" t="n">
-        <v>0.2935970706261304</v>
+        <v>0.2936099029775845</v>
       </c>
       <c r="J68" t="n">
-        <v>432003.5232568748</v>
+        <v>432009.9985058548</v>
       </c>
       <c r="K68" t="n">
-        <v>0.23325</v>
+        <v>0.2333</v>
       </c>
       <c r="L68" t="n">
-        <v>100764.8217996661</v>
+        <v>100787.9326514159</v>
       </c>
     </row>
     <row r="69">
@@ -3741,22 +3741,22 @@
         <v>870142</v>
       </c>
       <c r="G69" t="n">
-        <v>0.7339950897429864</v>
+        <v>0.7340323037687732</v>
       </c>
       <c r="H69" t="n">
-        <v>0.6024058337215615</v>
+        <v>0.602526890899778</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3975941662784386</v>
+        <v>0.397473109100222</v>
       </c>
       <c r="J69" t="n">
-        <v>384744.5310014216</v>
+        <v>384841.3585111832</v>
       </c>
       <c r="K69" t="n">
-        <v>0.15043</v>
+        <v>0.15031</v>
       </c>
       <c r="L69" t="n">
-        <v>57877.11979854385</v>
+        <v>57845.50459781595</v>
       </c>
     </row>
     <row r="70">
@@ -3789,22 +3789,22 @@
         <v>26476403.67</v>
       </c>
       <c r="G70" t="n">
-        <v>0.2137385443410982</v>
+        <v>0.2589999526940726</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5860027608069135</v>
+        <v>0.6110243958839172</v>
       </c>
       <c r="I70" t="n">
-        <v>0.4139972391930867</v>
+        <v>0.3889756041160828</v>
       </c>
       <c r="J70" t="n">
-        <v>3316206.019654053</v>
+        <v>4190030.931126432</v>
       </c>
       <c r="K70" t="n">
-        <v>0.36067</v>
+        <v>0.37168</v>
       </c>
       <c r="L70" t="n">
-        <v>1196056.025108627</v>
+        <v>1557350.696481072</v>
       </c>
     </row>
     <row r="71">
@@ -3837,22 +3837,22 @@
         <v>30782242.97</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1677147926454739</v>
+        <v>0.1885283893395134</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6232669785214192</v>
+        <v>0.6434376320302209</v>
       </c>
       <c r="I71" t="n">
-        <v>0.3767330214785808</v>
+        <v>0.356562367969779</v>
       </c>
       <c r="J71" t="n">
-        <v>3217701.473879379</v>
+        <v>3734078.781633074</v>
       </c>
       <c r="K71" t="n">
-        <v>0.3893</v>
+        <v>0.31593</v>
       </c>
       <c r="L71" t="n">
-        <v>1252651.183781242</v>
+        <v>1179707.509481337</v>
       </c>
     </row>
     <row r="72">
@@ -3885,22 +3885,22 @@
         <v>9243321.390000001</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9230732939017897</v>
+        <v>0.8723119478897118</v>
       </c>
       <c r="H72" t="n">
-        <v>0.5509076638041798</v>
+        <v>0.5115949968045284</v>
       </c>
       <c r="I72" t="n">
-        <v>0.4490923361958202</v>
+        <v>0.4884050031954715</v>
       </c>
       <c r="J72" t="n">
-        <v>4700489.143536726</v>
+        <v>4125020.994642563</v>
       </c>
       <c r="K72" t="n">
-        <v>0.34306</v>
+        <v>0.33149</v>
       </c>
       <c r="L72" t="n">
-        <v>1612549.805581709</v>
+        <v>1367403.209514063</v>
       </c>
     </row>
     <row r="73">
@@ -3933,22 +3933,22 @@
         <v>11416073.02</v>
       </c>
       <c r="G73" t="n">
-        <v>0.8851389738754911</v>
+        <v>0.8441700091478431</v>
       </c>
       <c r="H73" t="n">
-        <v>0.4602182792989054</v>
+        <v>0.4829894980117595</v>
       </c>
       <c r="I73" t="n">
-        <v>0.5397817207010945</v>
+        <v>0.5170105019882405</v>
       </c>
       <c r="J73" t="n">
-        <v>4650418.804056093</v>
+        <v>4654621.214166808</v>
       </c>
       <c r="K73" t="n">
-        <v>0.29085</v>
+        <v>0.3039</v>
       </c>
       <c r="L73" t="n">
-        <v>1352574.309159715</v>
+        <v>1414539.386985293</v>
       </c>
     </row>
     <row r="74">
@@ -3981,22 +3981,22 @@
         <v>1119406.88</v>
       </c>
       <c r="G74" t="n">
-        <v>0.541814348838394</v>
+        <v>0.5416962869798218</v>
       </c>
       <c r="H74" t="n">
-        <v>0.6977407940376803</v>
+        <v>0.6976575614222493</v>
       </c>
       <c r="I74" t="n">
-        <v>0.3022592059623197</v>
+        <v>0.3023424385777506</v>
       </c>
       <c r="J74" t="n">
-        <v>423187.2642289641</v>
+        <v>423044.5808515184</v>
       </c>
       <c r="K74" t="n">
-        <v>0.3036</v>
+        <v>0.30376</v>
       </c>
       <c r="L74" t="n">
-        <v>128479.6534199135</v>
+        <v>128504.0218794572</v>
       </c>
     </row>
     <row r="75">
@@ -4029,22 +4029,22 @@
         <v>1264126.8</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5984801169711588</v>
+        <v>0.598511293634497</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6578907354104708</v>
+        <v>0.6578192010265762</v>
       </c>
       <c r="I75" t="n">
-        <v>0.3421092645895294</v>
+        <v>0.3421807989734239</v>
       </c>
       <c r="J75" t="n">
-        <v>497730.3642310122</v>
+        <v>497702.1700334313</v>
       </c>
       <c r="K75" t="n">
-        <v>0.2612</v>
+        <v>0.26107</v>
       </c>
       <c r="L75" t="n">
-        <v>130007.1711371404</v>
+        <v>129935.1055306279</v>
       </c>
     </row>
     <row r="76">
@@ -4173,22 +4173,22 @@
         <v>10712630.09</v>
       </c>
       <c r="G78" t="n">
-        <v>0.7378787469371819</v>
+        <v>0.7380580478767844</v>
       </c>
       <c r="H78" t="n">
-        <v>0.4754089295099047</v>
+        <v>0.4753345420012087</v>
       </c>
       <c r="I78" t="n">
-        <v>0.5245910704900952</v>
+        <v>0.5246654579987914</v>
       </c>
       <c r="J78" t="n">
-        <v>3757927.915153033</v>
+        <v>3758252.925297764</v>
       </c>
       <c r="K78" t="n">
-        <v>0.26225</v>
+        <v>0.26228</v>
       </c>
       <c r="L78" t="n">
-        <v>985516.5957488829</v>
+        <v>985714.5772470976</v>
       </c>
     </row>
     <row r="79">
@@ -4221,22 +4221,22 @@
         <v>9757000.390000001</v>
       </c>
       <c r="G79" t="n">
-        <v>0.6376399429923465</v>
+        <v>0.6375532153260141</v>
       </c>
       <c r="H79" t="n">
-        <v>0.4229442684813988</v>
+        <v>0.4230732770878756</v>
       </c>
       <c r="I79" t="n">
-        <v>0.5770557315186012</v>
+        <v>0.5769267229121243</v>
       </c>
       <c r="J79" t="n">
-        <v>2631327.96091564</v>
+        <v>2631772.57651967</v>
       </c>
       <c r="K79" t="n">
-        <v>0.23201</v>
+        <v>0.23185</v>
       </c>
       <c r="L79" t="n">
-        <v>610494.4002120375</v>
+        <v>610176.4718660855</v>
       </c>
     </row>
     <row r="80">
@@ -4269,22 +4269,22 @@
         <v>77081657.48</v>
       </c>
       <c r="G80" t="n">
-        <v>0.5623457892673516</v>
+        <v>0.5622362154964227</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5864535752755343</v>
+        <v>0.5863816834303864</v>
       </c>
       <c r="I80" t="n">
-        <v>0.4135464247244656</v>
+        <v>0.4136183165696135</v>
       </c>
       <c r="J80" t="n">
-        <v>25420736.59230979</v>
+        <v>25412667.67448756</v>
       </c>
       <c r="K80" t="n">
-        <v>0.31498</v>
+        <v>0.31486</v>
       </c>
       <c r="L80" t="n">
-        <v>8007023.611845736</v>
+        <v>8001432.543989153</v>
       </c>
     </row>
     <row r="81">
@@ -4317,22 +4317,22 @@
         <v>53580151.19</v>
       </c>
       <c r="G81" t="n">
-        <v>0.6371829597583734</v>
+        <v>0.6371945027418592</v>
       </c>
       <c r="H81" t="n">
-        <v>0.5625676758002246</v>
+        <v>0.5625333231776982</v>
       </c>
       <c r="I81" t="n">
-        <v>0.4374323241997755</v>
+        <v>0.4374666768223017</v>
       </c>
       <c r="J81" t="n">
-        <v>19206262.59338115</v>
+        <v>19205437.69518928</v>
       </c>
       <c r="K81" t="n">
-        <v>0.23764</v>
+        <v>0.2375</v>
       </c>
       <c r="L81" t="n">
-        <v>4564176.242691097</v>
+        <v>4561291.452607454</v>
       </c>
     </row>
     <row r="82">
@@ -4365,22 +4365,22 @@
         <v>7258700.21</v>
       </c>
       <c r="G82" t="n">
-        <v>0.7343274891250855</v>
+        <v>0.7343971631205672</v>
       </c>
       <c r="H82" t="n">
-        <v>0.7575193867272579</v>
+        <v>0.7575276563530245</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2424806132727421</v>
+        <v>0.2424723436469755</v>
       </c>
       <c r="J82" t="n">
-        <v>4037777.634244104</v>
+        <v>4038204.82756624</v>
       </c>
       <c r="K82" t="n">
-        <v>0.32455</v>
+        <v>0.32463</v>
       </c>
       <c r="L82" t="n">
-        <v>1310460.731193924</v>
+        <v>1310922.433172829</v>
       </c>
     </row>
     <row r="83">
@@ -4413,22 +4413,22 @@
         <v>4808331.6</v>
       </c>
       <c r="G83" t="n">
-        <v>0.7366308287818764</v>
+        <v>0.7366718715146107</v>
       </c>
       <c r="H83" t="n">
-        <v>0.6609278171721149</v>
+        <v>0.661063186610632</v>
       </c>
       <c r="I83" t="n">
-        <v>0.3390721828278853</v>
+        <v>0.3389368133893682</v>
       </c>
       <c r="J83" t="n">
-        <v>2340983.388654166</v>
+        <v>2341593.321389073</v>
       </c>
       <c r="K83" t="n">
-        <v>0.20601</v>
+        <v>0.20594</v>
       </c>
       <c r="L83" t="n">
-        <v>482265.9878966448</v>
+        <v>482227.7286068657</v>
       </c>
     </row>
     <row r="84">
@@ -4461,22 +4461,22 @@
         <v>10075194.08</v>
       </c>
       <c r="G84" t="n">
-        <v>0.7025079758867265</v>
+        <v>0.7024658989081013</v>
       </c>
       <c r="H84" t="n">
-        <v>0.6583957000940481</v>
+        <v>0.6583564577097035</v>
       </c>
       <c r="I84" t="n">
-        <v>0.341604299905952</v>
+        <v>0.3416435422902965</v>
       </c>
       <c r="J84" t="n">
-        <v>4660061.690830356</v>
+        <v>4659504.837487273</v>
       </c>
       <c r="K84" t="n">
-        <v>0.28728</v>
+        <v>0.28719</v>
       </c>
       <c r="L84" t="n">
-        <v>1338742.522541744</v>
+        <v>1338163.19427797</v>
       </c>
     </row>
     <row r="85">
@@ -4509,22 +4509,22 @@
         <v>7149460.78</v>
       </c>
       <c r="G85" t="n">
-        <v>0.6968413455178796</v>
+        <v>0.696853834389338</v>
       </c>
       <c r="H85" t="n">
-        <v>0.5642811458047499</v>
+        <v>0.5639998767752071</v>
       </c>
       <c r="I85" t="n">
-        <v>0.4357188541952499</v>
+        <v>0.4360001232247929</v>
       </c>
       <c r="J85" t="n">
-        <v>2811271.166098108</v>
+        <v>2809920.231392748</v>
       </c>
       <c r="K85" t="n">
-        <v>0.28238</v>
+        <v>0.28277</v>
       </c>
       <c r="L85" t="n">
-        <v>793846.7518827837</v>
+        <v>794561.1438309274</v>
       </c>
     </row>
     <row r="86">
@@ -4557,22 +4557,22 @@
         <v>19861414.81</v>
       </c>
       <c r="G86" t="n">
-        <v>0.7998759983032135</v>
+        <v>0.7999037367638051</v>
       </c>
       <c r="H86" t="n">
-        <v>0.5015754839710033</v>
+        <v>0.5015141540487162</v>
       </c>
       <c r="I86" t="n">
-        <v>0.4984245160289967</v>
+        <v>0.4984858459512838</v>
       </c>
       <c r="J86" t="n">
-        <v>7968363.691791833</v>
+        <v>7967665.660338162</v>
       </c>
       <c r="K86" t="n">
-        <v>0.17972</v>
+        <v>0.17964</v>
       </c>
       <c r="L86" t="n">
-        <v>1432074.322688828</v>
+        <v>1431311.459223147</v>
       </c>
     </row>
     <row r="87">
@@ -4605,22 +4605,22 @@
         <v>21717536.49</v>
       </c>
       <c r="G87" t="n">
-        <v>0.8582084807821289</v>
+        <v>0.858190534110829</v>
       </c>
       <c r="H87" t="n">
-        <v>0.5608051489970149</v>
+        <v>0.56074222668004</v>
       </c>
       <c r="I87" t="n">
-        <v>0.4391948510029851</v>
+        <v>0.4392577733199599</v>
       </c>
       <c r="J87" t="n">
-        <v>10452383.94565168</v>
+        <v>10450992.63507743</v>
       </c>
       <c r="K87" t="n">
-        <v>0.17252</v>
+        <v>0.17271</v>
       </c>
       <c r="L87" t="n">
-        <v>1803245.278303828</v>
+        <v>1804990.938004223</v>
       </c>
     </row>
     <row r="88">
@@ -4653,22 +4653,22 @@
         <v>887903.38</v>
       </c>
       <c r="G88" t="n">
-        <v>0.8284468607134888</v>
+        <v>0.8284550535189922</v>
       </c>
       <c r="H88" t="n">
-        <v>0.7064029293738695</v>
+        <v>0.7063900970224155</v>
       </c>
       <c r="I88" t="n">
-        <v>0.2935970706261304</v>
+        <v>0.2936099029775845</v>
       </c>
       <c r="J88" t="n">
-        <v>519616.4091493857</v>
+        <v>519612.1084964871</v>
       </c>
       <c r="K88" t="n">
-        <v>0.23325</v>
+        <v>0.2333</v>
       </c>
       <c r="L88" t="n">
-        <v>121200.5274340942</v>
+        <v>121225.5049122304</v>
       </c>
     </row>
     <row r="89">
@@ -4701,22 +4701,22 @@
         <v>870142</v>
       </c>
       <c r="G89" t="n">
-        <v>0.8288914613062782</v>
+        <v>0.8289033720600737</v>
       </c>
       <c r="H89" t="n">
-        <v>0.6024058337215615</v>
+        <v>0.602526890899778</v>
       </c>
       <c r="I89" t="n">
-        <v>0.3975941662784386</v>
+        <v>0.397473109100222</v>
       </c>
       <c r="J89" t="n">
-        <v>434487.1798025735</v>
+        <v>434580.7373057879</v>
       </c>
       <c r="K89" t="n">
-        <v>0.15043</v>
+        <v>0.15031</v>
       </c>
       <c r="L89" t="n">
-        <v>65359.90645770113</v>
+        <v>65321.83062443298</v>
       </c>
     </row>
     <row r="90">
@@ -4749,22 +4749,22 @@
         <v>26476403.67</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4239891013708586</v>
+        <v>0.4683286815838025</v>
       </c>
       <c r="H90" t="n">
-        <v>0.5860027608069135</v>
+        <v>0.6110243958839172</v>
       </c>
       <c r="I90" t="n">
-        <v>0.4139972391930867</v>
+        <v>0.3889756041160828</v>
       </c>
       <c r="J90" t="n">
-        <v>6578295.059359576</v>
+        <v>7576494.286420397</v>
       </c>
       <c r="K90" t="n">
-        <v>0.36067</v>
+        <v>0.37168</v>
       </c>
       <c r="L90" t="n">
-        <v>2372593.679059218</v>
+        <v>2816031.396376733</v>
       </c>
     </row>
     <row r="91">
@@ -4797,22 +4797,22 @@
         <v>30782242.97</v>
       </c>
       <c r="G91" t="n">
-        <v>0.3849505133001175</v>
+        <v>0.4172653534183083</v>
       </c>
       <c r="H91" t="n">
-        <v>0.6232669785214192</v>
+        <v>0.6434376320302209</v>
       </c>
       <c r="I91" t="n">
-        <v>0.3767330214785808</v>
+        <v>0.356562367969779</v>
       </c>
       <c r="J91" t="n">
-        <v>7385489.463858804</v>
+        <v>8264546.830154087</v>
       </c>
       <c r="K91" t="n">
-        <v>0.3893</v>
+        <v>0.31593</v>
       </c>
       <c r="L91" t="n">
-        <v>2875171.048280232</v>
+        <v>2611018.280050581</v>
       </c>
     </row>
     <row r="92">
@@ -4845,22 +4845,22 @@
         <v>9243321.390000001</v>
       </c>
       <c r="G92" t="n">
-        <v>0.9700761169990642</v>
+        <v>0.9338806103328278</v>
       </c>
       <c r="H92" t="n">
-        <v>0.5509076638041798</v>
+        <v>0.5115949968045284</v>
       </c>
       <c r="I92" t="n">
-        <v>0.4490923361958202</v>
+        <v>0.4884050031954715</v>
       </c>
       <c r="J92" t="n">
-        <v>4939837.699219046</v>
+        <v>4416169.162226788</v>
       </c>
       <c r="K92" t="n">
-        <v>0.34306</v>
+        <v>0.33149</v>
       </c>
       <c r="L92" t="n">
-        <v>1694660.721094086</v>
+        <v>1463915.915586558</v>
       </c>
     </row>
     <row r="93">
@@ -4893,22 +4893,22 @@
         <v>11416073.02</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9443220812633331</v>
+        <v>0.9590106255717401</v>
       </c>
       <c r="H93" t="n">
-        <v>0.4602182792989054</v>
+        <v>0.4829894980117595</v>
       </c>
       <c r="I93" t="n">
-        <v>0.5397817207010945</v>
+        <v>0.5170105019882405</v>
       </c>
       <c r="J93" t="n">
-        <v>4961360.07271794</v>
+        <v>5287834.386468749</v>
       </c>
       <c r="K93" t="n">
-        <v>0.29085</v>
+        <v>0.3039</v>
       </c>
       <c r="L93" t="n">
-        <v>1443011.577150013</v>
+        <v>1606972.870047853</v>
       </c>
     </row>
     <row r="94">
@@ -4941,22 +4941,22 @@
         <v>1119406.88</v>
       </c>
       <c r="G94" t="n">
-        <v>0.6858664437853496</v>
+        <v>0.6857330343960191</v>
       </c>
       <c r="H94" t="n">
-        <v>0.6977407940376803</v>
+        <v>0.6976575614222493</v>
       </c>
       <c r="I94" t="n">
-        <v>0.3022592059623197</v>
+        <v>0.3023424385777506</v>
       </c>
       <c r="J94" t="n">
-        <v>535699.9950153462</v>
+        <v>535531.9042881123</v>
       </c>
       <c r="K94" t="n">
-        <v>0.3036</v>
+        <v>0.30376</v>
       </c>
       <c r="L94" t="n">
-        <v>162638.5184866591</v>
+        <v>162673.171246557</v>
       </c>
     </row>
     <row r="95">
@@ -4989,22 +4989,22 @@
         <v>1264126.8</v>
       </c>
       <c r="G95" t="n">
-        <v>0.7133893145806289</v>
+        <v>0.7134496919917863</v>
       </c>
       <c r="H95" t="n">
-        <v>0.6578907354104708</v>
+        <v>0.6578192010265762</v>
       </c>
       <c r="I95" t="n">
-        <v>0.3421092645895294</v>
+        <v>0.3421807989734239</v>
       </c>
       <c r="J95" t="n">
-        <v>593295.4384211228</v>
+        <v>593281.1355283152</v>
       </c>
       <c r="K95" t="n">
-        <v>0.2612</v>
+        <v>0.26107</v>
       </c>
       <c r="L95" t="n">
-        <v>154968.7685155973</v>
+        <v>154887.9060523773</v>
       </c>
     </row>
     <row r="96">
@@ -5133,22 +5133,22 @@
         <v>10712630.09</v>
       </c>
       <c r="G98" t="n">
-        <v>0.8215225970321266</v>
+        <v>0.8216789567365324</v>
       </c>
       <c r="H98" t="n">
-        <v>0.4754089295099047</v>
+        <v>0.4753345420012087</v>
       </c>
       <c r="I98" t="n">
-        <v>0.5245910704900952</v>
+        <v>0.5246654579987914</v>
       </c>
       <c r="J98" t="n">
-        <v>4183916.006702481</v>
+        <v>4184057.543569024</v>
       </c>
       <c r="K98" t="n">
-        <v>0.26225</v>
+        <v>0.26228</v>
       </c>
       <c r="L98" t="n">
-        <v>1097231.972757726</v>
+        <v>1097394.612527284</v>
       </c>
     </row>
     <row r="99">
@@ -5181,22 +5181,22 @@
         <v>9757000.390000001</v>
       </c>
       <c r="G99" t="n">
-        <v>0.7681865437762539</v>
+        <v>0.7681380237508403</v>
       </c>
       <c r="H99" t="n">
-        <v>0.4229442684813988</v>
+        <v>0.4230732770878756</v>
       </c>
       <c r="I99" t="n">
-        <v>0.5770557315186012</v>
+        <v>0.5769267229121243</v>
       </c>
       <c r="J99" t="n">
-        <v>3170050.361575082</v>
+        <v>3170817.019338136</v>
       </c>
       <c r="K99" t="n">
-        <v>0.23201</v>
+        <v>0.23185</v>
       </c>
       <c r="L99" t="n">
-        <v>735483.3843890348</v>
+        <v>735153.9259335469</v>
       </c>
     </row>
     <row r="100">
@@ -5229,22 +5229,22 @@
         <v>77081657.48</v>
       </c>
       <c r="G100" t="n">
-        <v>0.7663895309077393</v>
+        <v>0.7663123208522354</v>
       </c>
       <c r="H100" t="n">
-        <v>0.5864535752755343</v>
+        <v>0.5863816834303864</v>
       </c>
       <c r="I100" t="n">
-        <v>0.4135464247244656</v>
+        <v>0.4136183165696135</v>
       </c>
       <c r="J100" t="n">
-        <v>34644495.90294211</v>
+        <v>34636759.08441556</v>
       </c>
       <c r="K100" t="n">
-        <v>0.31498</v>
+        <v>0.31486</v>
       </c>
       <c r="L100" t="n">
-        <v>10912323.3195087</v>
+        <v>10905729.96531908</v>
       </c>
     </row>
     <row r="101">
@@ -5277,22 +5277,22 @@
         <v>53580151.19</v>
       </c>
       <c r="G101" t="n">
-        <v>0.8394030587143322</v>
+        <v>0.8395166204048474</v>
       </c>
       <c r="H101" t="n">
-        <v>0.5625676758002246</v>
+        <v>0.5625333231776982</v>
       </c>
       <c r="I101" t="n">
-        <v>0.4374323241997755</v>
+        <v>0.4374666768223017</v>
       </c>
       <c r="J101" t="n">
-        <v>25301674.06464913</v>
+        <v>25303551.86349284</v>
       </c>
       <c r="K101" t="n">
-        <v>0.23764</v>
+        <v>0.2375</v>
       </c>
       <c r="L101" t="n">
-        <v>6012689.824723219</v>
+        <v>6009593.56757955</v>
       </c>
     </row>
   </sheetData>
